--- a/Design notes.xlsx
+++ b/Design notes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Unity Projects\SMET Evaluator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis.rideout\Documents\GitHub\SMET-Evaluator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,49 +380,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -877,7 +835,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1795,90 +1753,90 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A46 F46:G46">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>#REF!="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$E35="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$E35="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$E35="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 B8:B13 B35:B37 B48:B49 B51 B53:B55 B43:B46 B29:B33 B23:B27 B15:B21">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>$E2="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>$E2="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>$E2="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 B7 B14 B34 B47 B50 B52 B38:B41">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="13" priority="32">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="12" priority="33">
       <formula>#REF!="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G69">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$E2="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$E2="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$E2="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="14" priority="37">
+    <cfRule type="expression" dxfId="8" priority="37">
       <formula>$E16="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="38">
+    <cfRule type="expression" dxfId="7" priority="38">
       <formula>$E16="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="39">
+    <cfRule type="expression" dxfId="6" priority="39">
       <formula>$E16="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="11" priority="40">
+    <cfRule type="expression" dxfId="5" priority="40">
       <formula>$E38="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="41">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>$E38="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="42">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>$E38="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="8" priority="46">
+    <cfRule type="expression" dxfId="2" priority="46">
       <formula>$E26="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="47">
+    <cfRule type="expression" dxfId="1" priority="47">
       <formula>$E26="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="48">
+    <cfRule type="expression" dxfId="0" priority="48">
       <formula>$E26="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
